--- a/Assignment 1/A1_data.xlsx
+++ b/Assignment 1/A1_data.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Google Drive\!Varsity\!Post\CBP732\Assignment 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Chart1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Chart2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Chart3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Chart4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sheet2" sheetId="6" r:id="rId9"/>
+    <sheet name="Chart1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart4" sheetId="4" r:id="rId4"/>
+    <sheet name="cmol" sheetId="5" r:id="rId5"/>
+    <sheet name="gram" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Theta">Sheet1!$K$1</definedName>
-    <definedName name="PO">Sheet1!$I$1</definedName>
+    <definedName name="PO">cmol!$I$1</definedName>
+    <definedName name="Theta">cmol!$K$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t xml:space="preserve">Biomass MM = </t>
   </si>
@@ -89,14 +98,23 @@
   <si>
     <t>P/O = 2</t>
   </si>
+  <si>
+    <t xml:space="preserve">V3 </t>
+  </si>
+  <si>
+    <t>V1 (rS)</t>
+  </si>
+  <si>
+    <t>V2 (rX)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -106,42 +124,67 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>cmol!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X (g/L)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -165,21 +208,137 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>cmol!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$20</c:f>
+              <c:f>cmol!$C$5:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>13.662710000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.774420000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.88613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.99784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.093910600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.063475169094545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5019857169013449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7763304983013768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7761756717004573</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0870300530991699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5173215624995464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0203941519007458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6165047333029179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3148201067001537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0354138880979917</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5312634375009111</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE0B-4D8E-B503-839422AD07AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>cmol!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (mmol/g/h)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -203,21 +362,137 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>cmol!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$20</c:f>
+              <c:f>cmol!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.1218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5981000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0743999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5507000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8203180000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0873400000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.191600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.667200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.142800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.618400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.569600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.045200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.520800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.472000000000001</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE0B-4D8E-B503-839422AD07AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>cmol!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O2 (mmol/g/h)</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -241,14 +516,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>cmol!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$20</c:f>
+              <c:f>cmol!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.1218000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5981000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0743999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5507000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8203180000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.921735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4116499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8115500000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.211450000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6113499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0112500000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.411150000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8110499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2109500000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.610850000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0107499999999998</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE0B-4D8E-B503-839422AD07AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -284,7 +669,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1600">
+                  <a:defRPr sz="1600" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -292,6 +677,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>D (1/h)</a:t>
                 </a:r>
               </a:p>
@@ -300,6 +686,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -311,16 +699,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="479312579"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="479312579"/>
@@ -345,7 +736,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1600">
+                  <a:defRPr sz="1600" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -353,6 +744,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>Concentration</a:t>
                 </a:r>
               </a:p>
@@ -360,7 +752,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -372,16 +766,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1180696537"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -404,9 +801,13 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -417,17 +818,22 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.09569619311372835"/>
-          <c:y val="0.039227750774502655"/>
-          <c:w val="0.8754857872618962"/>
-          <c:h val="0.8338456630731982"/>
+          <c:x val="9.5696193113728345E-2"/>
+          <c:y val="3.9227750774502655E-2"/>
+          <c:w val="0.87548578726189619"/>
+          <c:h val="0.83384566307319818"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -438,7 +844,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$4</c:f>
+              <c:f>cmol!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gamma</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -462,14 +874,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>cmol!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$20</c:f>
+              <c:f>cmol!$N$5:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2.7008184281842821E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2121528666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0180725333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9210323666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8695172164609057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7909374057971017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6459911111111118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5320142528735636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4327440860215059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3455066666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2682392380952385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1993250450450454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1374789743589742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.081666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0310462015503878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.984925333333333</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E20C-4C20-8D06-7A19840FA8F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -505,7 +1027,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1600">
+                  <a:defRPr sz="1600" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -513,6 +1035,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>D (1/h)</a:t>
                 </a:r>
               </a:p>
@@ -521,6 +1044,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -532,16 +1057,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1600">
+              <a:defRPr sz="1600" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="670525545"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="670525545"/>
@@ -566,7 +1094,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1600">
+                  <a:defRPr sz="1600" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -574,6 +1102,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>Gamma (mol ATP/cmolX)</a:t>
                 </a:r>
               </a:p>
@@ -582,6 +1111,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -593,16 +1124,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1600">
+              <a:defRPr sz="1600" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1953064075"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -610,6 +1144,9 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -620,8 +1157,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -651,14 +1193,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$20</c:f>
+              <c:f>cmol!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$20</c:f>
+              <c:f>cmol!$O$5:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1.350409214092141E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32121528666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45271088000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58420647333333342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69729268360000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7061071636666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71441760000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73428413333333342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75415066666666686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77401720000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7938837333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81375026666666683</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83361679999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85348333333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87334986666666681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89321639999999991</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEC4-410C-8ADB-FE86C44D8414}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -697,6 +1349,7 @@
                   <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>D (1/h)</a:t>
                 </a:r>
               </a:p>
@@ -705,6 +1358,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -718,9 +1373,12 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171957044"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1171957044"/>
@@ -748,6 +1406,7 @@
                   <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>rATP (mol ATP/cmolX.h) </a:t>
                 </a:r>
               </a:p>
@@ -756,6 +1415,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -769,9 +1430,12 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="311827402"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -779,6 +1443,9 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -789,17 +1456,22 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.09569619311372835"/>
-          <c:y val="0.039227750774502655"/>
-          <c:w val="0.8754857872618962"/>
-          <c:h val="0.8338456630731982"/>
+          <c:x val="9.5696193113728345E-2"/>
+          <c:y val="3.9227750774502655E-2"/>
+          <c:w val="0.87548578726189619"/>
+          <c:h val="0.83384566307319818"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -829,14 +1501,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>cmol!$B$5:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$20</c:f>
+              <c:f>cmol!$N$5:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-2.7008184281842821E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2121528666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0180725333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9210323666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8695172164609057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7909374057971017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6459911111111118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5320142528735636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4327440860215059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3455066666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2682392380952385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1993250450450454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1374789743589742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.081666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0310462015503878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.984925333333333</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32D4-4AD5-9213-9B9D53FDCBD0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -872,7 +1654,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1600">
+                  <a:defRPr sz="1600" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -880,6 +1662,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>D (1/h)</a:t>
                 </a:r>
               </a:p>
@@ -888,6 +1671,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -899,16 +1684,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1600">
+              <a:defRPr sz="1600" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="472012784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="472012784"/>
@@ -933,7 +1721,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1600">
+                  <a:defRPr sz="1600" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -941,6 +1729,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>Gamma (mol ATP/cmolX)</a:t>
                 </a:r>
               </a:p>
@@ -949,6 +1738,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -960,16 +1751,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1600">
+              <a:defRPr sz="1600" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1710045759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -992,9 +1786,13 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1005,8 +1803,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1036,14 +1839,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$20</c:f>
+              <c:f>cmol!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$20</c:f>
+              <c:f>cmol!$O$5:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1.350409214092141E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32121528666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45271088000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58420647333333342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69729268360000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7061071636666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71441760000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73428413333333342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75415066666666686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77401720000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7938837333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81375026666666683</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83361679999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85348333333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87334986666666681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89321639999999991</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D28E-483A-8BF0-AC81689ABCC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1082,6 +1995,7 @@
                   <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>D (1/h)</a:t>
                 </a:r>
               </a:p>
@@ -1090,6 +2004,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1103,9 +2019,12 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="393414652"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="393414652"/>
@@ -1133,6 +2052,7 @@
                   <a:defRPr b="1" i="0"/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-ZA"/>
                   <a:t>rATP (mol ATP/cmolX.h) </a:t>
                 </a:r>
               </a:p>
@@ -1141,6 +2061,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1154,9 +2076,12 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="201742369"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1164,60 +2089,395 @@
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cmol!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cmol!$O$5:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1.350409214092141E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32121528666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45271088000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58420647333333342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69729268360000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7061071636666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71441760000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73428413333333342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75415066666666686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77401720000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7938837333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81375026666666683</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83361679999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85348333333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87334986666666681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89321639999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-249A-41E4-9D9B-302BAB705D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="201742369"/>
+        <c:axId val="393414652"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="201742369"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="1" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>D (1/h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393414652"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="393414652"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="1" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>rATP (mol ATP/cmolX.h) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201742369"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1225,7 +2485,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1234,15 +2494,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1250,7 +2518,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1259,15 +2527,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1275,7 +2551,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1284,15 +2560,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
+    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1300,7 +2584,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1309,8 +2593,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1324,9 +2608,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5"/>
+        <xdr:cNvPr id="5" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1335,7 +2625,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1356,17 +2646,24 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="4972050" cy="2905125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1380,19 +2677,101 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6929662F-E9EA-4835-94EB-06C42B459008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F0691F-BE13-42F2-8FFC-E3619B2A60E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="4152900"/>
+          <a:ext cx="5676900" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1556,21 +2935,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1587,7 +2966,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1637,30 +3016,31 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
+  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="11.0"/>
-    <col customWidth="1" min="8" max="8" width="15.71"/>
-    <col customWidth="1" min="9" max="11" width="11.0"/>
-    <col customWidth="1" min="12" max="12" width="13.71"/>
-    <col customWidth="1" min="13" max="17" width="11.0"/>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1668,7 +3048,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="1">
         <f>12+ 1.8 + 16*0.5  + 14*0.2</f>
         <v>24.6</v>
       </c>
@@ -1685,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1694,7 +3074,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1713,7 +3093,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1736,7 +3116,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1783,951 +3163,951 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>0.05</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" ref="C5:C9" si="1">2.2342*B5+13.551</f>
-        <v>13.66</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D9" si="2">29.526*B5+0.6455</f>
-        <v>2.1218</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E9" si="3">29.526*B5+0.6455</f>
-        <v>2.1218</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F20" si="4">(1.1*G5) + H5 + I5</f>
-        <v>0.05258625203</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G20" si="5">B5</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C9" si="0">2.2342*B5+13.551</f>
+        <v>13.662710000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D9" si="1">29.526*B5+0.6455</f>
+        <v>2.1218000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E9" si="2">29.526*B5+0.6455</f>
+        <v>2.1218000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F20" si="3">(1.1*G5) + H5 + I5</f>
+        <v>5.2586252032520334E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G20" si="4">B5</f>
         <v>0.05</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H20" si="6">(-0.1*G5+1/3*J5+2*L5)/2</f>
-        <v>-0.002413747967</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" ref="I5:I20" si="7">J5+1.5*K5</f>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H20" si="5">(-0.1*G5+1/3*J5+2*L5)/2</f>
+        <v>-2.4137479674796753E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I20" si="6">J5+1.5*K5</f>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f t="shared" ref="K5:K20" si="8">IF(2*(Q5-H5-G5*0.1)&gt;0,2*(Q5-H5-G5*0.1),0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K20" si="7">IF(2*(Q5-H5-G5*0.1)&gt;0,2*(Q5-H5-G5*0.1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <f>E5/$F$1/1000</f>
-        <v>0.00008625203252</v>
+        <v>8.6252032520325205E-5</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="1">
         <f>(2/3*H5 - 1/3*I5 + K5 + 2*PO*L5 - Theta)/G5</f>
-        <v>-2.027008184</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <f t="shared" ref="O5:O20" si="9">N5*G5</f>
-        <v>-0.1013504092</v>
+        <v>-2.7008184281842821E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f>N5*G5</f>
+        <v>-1.350409214092141E-3</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="1">
         <f>D5/$F$1/1000</f>
-        <v>0.00008625203252</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>8.6252032520325205E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>0.1</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>13.774420000000001</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>13.77</v>
-      </c>
-      <c r="D6" s="1" t="str">
+        <v>3.5981000000000005</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>3.5981</v>
-      </c>
-      <c r="E6" s="1" t="str">
+        <v>3.5981000000000005</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
-        <v>3.5981</v>
-      </c>
-      <c r="F6" s="1" t="str">
+        <v>0.19351326000000002</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="4"/>
-        <v>0.19351326</v>
-      </c>
-      <c r="G6" s="1" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="1" t="str">
+        <v>8.3513260000000006E-2</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="6"/>
-        <v>0.08351326</v>
-      </c>
-      <c r="I6" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:L20" si="10">E6*$F$1/1000</f>
-        <v>0.08851326</v>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L20" si="8">E6*$F$1/1000</f>
+        <v>8.851326000000001E-2</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="str">
-        <f>(2/3*H6 - 1/3*I6 + K6 + 2*PO*L6 - Theta)/G6</f>
-        <v>2.212152867</v>
-      </c>
-      <c r="O6" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.2212152867</v>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N20" si="9">(2/3*H6 - 1/3*I6 + K6 + 2*PO*L6 - Theta)/G6</f>
+        <v>3.2121528666666666</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O20" si="10">N6*G6</f>
+        <v>0.32121528666666666</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="1">
         <f t="shared" ref="Q6:Q20" si="11">D6*$F$1/1000</f>
-        <v>0.08851326</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>8.851326000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>0.15</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.88613</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>13.89</v>
-      </c>
-      <c r="D7" s="1" t="str">
+        <v>5.0743999999999998</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>5.0744</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>5.0743999999999998</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>5.0744</v>
-      </c>
-      <c r="F7" s="1" t="str">
+        <v>0.28233024000000001</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>0.28233024</v>
-      </c>
-      <c r="G7" s="1" t="str">
+        <v>0.15</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="5"/>
-        <v>0.15</v>
-      </c>
-      <c r="H7" s="1" t="str">
+        <v>0.11733024</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="6"/>
-        <v>0.11733024</v>
-      </c>
-      <c r="I7" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="1" t="str">
+      <c r="L7" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="str">
+        <v>0.12483024000000001</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0180725333333336</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="10"/>
-        <v>0.12483024</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="str">
-        <f>(2/3*H7 - 1/3*I7 + K7 + 2*PO*L7 - Theta)/G7</f>
-        <v>2.351405867</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.35271088</v>
+        <v>0.45271088000000004</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="str">
+      <c r="Q7" s="1">
         <f t="shared" si="11"/>
-        <v>0.12483024</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>0.12483024000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>0.2</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>13.99784</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>14.00</v>
-      </c>
-      <c r="D8" s="1" t="str">
+        <v>6.5507000000000009</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>6.5507</v>
-      </c>
-      <c r="E8" s="1" t="str">
+        <v>6.5507000000000009</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>6.5507</v>
-      </c>
-      <c r="F8" s="1" t="str">
+        <v>0.37114722000000006</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>0.37114722</v>
-      </c>
-      <c r="G8" s="1" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="H8" s="1" t="str">
+        <v>0.15114722000000003</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="6"/>
-        <v>0.15114722</v>
-      </c>
-      <c r="I8" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="1" t="str">
+      <c r="L8" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="str">
+        <v>0.16114722000000004</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9210323666666671</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="10"/>
-        <v>0.16114722</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="str">
-        <f>(2/3*H8 - 1/3*I8 + K8 + 2*PO*L8 - Theta)/G8</f>
-        <v>2.421032367</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.4842064733</v>
+        <v>0.58420647333333342</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="str">
+      <c r="Q8" s="1">
         <f t="shared" si="11"/>
-        <v>0.16114722</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>0.16114722000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>0.243</v>
-      </c>
-      <c r="C9" s="2" t="str">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>14.093910600000001</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>14.09</v>
-      </c>
-      <c r="D9" s="1" t="str">
+        <v>7.8203180000000003</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>7.820318</v>
-      </c>
-      <c r="E9" s="1" t="str">
+        <v>7.8203180000000003</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>7.820318</v>
-      </c>
-      <c r="F9" s="1" t="str">
+        <v>0.44752982280000009</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>0.4475298228</v>
-      </c>
-      <c r="G9" s="1" t="str">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="5"/>
-        <v>0.243</v>
-      </c>
-      <c r="H9" s="1" t="str">
+        <v>0.18022982280000002</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="6"/>
-        <v>0.1802298228</v>
-      </c>
-      <c r="I9" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="1" t="str">
+      <c r="L9" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="str">
+        <v>0.19237982280000002</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <f t="shared" si="9"/>
+        <v>2.8695172164609057</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="10"/>
-        <v>0.1923798228</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="str">
-        <f>(2/3*H9 - 1/3*I9 + K9 + 2*PO*L9 - Theta)/G9</f>
-        <v>2.457994583</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.5972926836</v>
+        <v>0.69729268360000007</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="str">
+      <c r="Q9" s="1">
         <f t="shared" si="11"/>
-        <v>0.1923798228</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>0.19237982280000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>0.253</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="2">
         <f t="shared" ref="C10:C20" si="12">-203133*B10^5 + 372908*B10^4 - 273102*B10^3 + 99847*B10^2 - 18267*B10 + 1347.9</f>
-        <v>12.06</v>
-      </c>
-      <c r="D10" s="1" t="str">
+        <v>12.063475169094545</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" ref="D10:D20" si="13">123.78*B10-23.229</f>
-        <v>8.08734</v>
-      </c>
-      <c r="E10" s="1" t="str">
+        <v>8.0873400000000011</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" ref="E10:E20" si="14">-30.005*B10+15.513</f>
         <v>7.921735</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4605246810000001</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>0.460524681</v>
-      </c>
-      <c r="G10" s="1" t="str">
+        <v>0.253</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="5"/>
-        <v>0.253</v>
-      </c>
-      <c r="H10" s="1" t="str">
+        <v>0.18222468100000003</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="6"/>
-        <v>0.182224681</v>
-      </c>
-      <c r="I10" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="1" t="str">
+      <c r="L10" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="str">
+        <v>0.19487468100000002</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7909374057971017</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="10"/>
-        <v>0.194874681</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="str">
-        <f>(2/3*H10 - 1/3*I10 + K10 + 2*PO*L10 - Theta)/G10</f>
-        <v>2.395680489</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.6061071637</v>
+        <v>0.7061071636666667</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="1">
         <f t="shared" si="11"/>
-        <v>0.198948564</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>0.19894856400000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>0.27</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="2">
         <f t="shared" si="12"/>
-        <v>9.50</v>
-      </c>
-      <c r="D11" s="1" t="str">
+        <v>9.5019857169013449</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="13"/>
-        <v>10.1916</v>
-      </c>
-      <c r="E11" s="1" t="str">
+        <v>10.191600000000001</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="14"/>
-        <v>7.41165</v>
-      </c>
-      <c r="F11" s="1" t="str">
+        <v>7.4116499999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63048690000000018</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>0.6304869</v>
-      </c>
-      <c r="G11" s="1" t="str">
+        <v>0.27</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="5"/>
-        <v>0.27</v>
-      </c>
-      <c r="H11" s="1" t="str">
+        <v>0.16882659</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="6"/>
-        <v>0.16882659</v>
-      </c>
-      <c r="I11" s="1" t="str">
+        <v>0.16466031000000014</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="7"/>
-        <v>0.16466031</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="1" t="str">
+        <v>0.1097735400000001</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="8"/>
-        <v>0.10977354</v>
-      </c>
-      <c r="L11" s="1" t="str">
+        <v>0.18232659000000001</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <f t="shared" si="9"/>
+        <v>2.6459911111111118</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="10"/>
-        <v>0.18232659</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="str">
-        <f>(2/3*H11 - 1/3*I11 + K11 + 2*PO*L11 - Theta)/G11</f>
-        <v>2.275620741</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.6144176</v>
+        <v>0.71441760000000021</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="str">
+      <c r="Q11" s="1">
         <f t="shared" si="11"/>
-        <v>0.25071336</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>0.25071336000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="C12" s="2" t="str">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="12"/>
-        <v>7.78</v>
-      </c>
-      <c r="D12" s="1" t="str">
+        <v>7.7763304983013768</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="13"/>
-        <v>12.6672</v>
-      </c>
-      <c r="E12" s="1" t="str">
+        <v>12.667200000000001</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="14"/>
-        <v>6.81155</v>
-      </c>
-      <c r="F12" s="1" t="str">
+        <v>6.8115500000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86071110000000006</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>0.8607111</v>
-      </c>
-      <c r="G12" s="1" t="str">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="5"/>
-        <v>0.29</v>
-      </c>
-      <c r="H12" s="1" t="str">
+        <v>0.15306413000000002</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="6"/>
-        <v>0.15306413</v>
-      </c>
-      <c r="I12" s="1" t="str">
+        <v>0.38864697000000004</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="7"/>
-        <v>0.38864697</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="1" t="str">
+        <v>0.25909798000000001</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="8"/>
-        <v>0.25909798</v>
-      </c>
-      <c r="L12" s="1" t="str">
+        <v>0.16756413000000003</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5320142528735636</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="10"/>
-        <v>0.16756413</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="str">
-        <f>(2/3*H12 - 1/3*I12 + K12 + 2*PO*L12 - Theta)/G12</f>
-        <v>2.187186667</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.6342841333</v>
+        <v>0.73428413333333342</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="str">
+      <c r="Q12" s="1">
         <f t="shared" si="11"/>
-        <v>0.31161312</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>0.31161312000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>0.31</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="2">
         <f t="shared" si="12"/>
-        <v>6.78</v>
-      </c>
-      <c r="D13" s="1" t="str">
+        <v>6.7761756717004573</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="13"/>
-        <v>15.1428</v>
-      </c>
-      <c r="E13" s="1" t="str">
+        <v>15.142800000000001</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="14"/>
-        <v>6.21145</v>
-      </c>
-      <c r="F13" s="1" t="str">
+        <v>6.211450000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0909353000000002</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>1.0909353</v>
-      </c>
-      <c r="G13" s="1" t="str">
+        <v>0.31</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="5"/>
-        <v>0.31</v>
-      </c>
-      <c r="H13" s="1" t="str">
+        <v>0.13730167000000004</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="6"/>
-        <v>0.13730167</v>
-      </c>
-      <c r="I13" s="1" t="str">
+        <v>0.61263363000000004</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="7"/>
-        <v>0.61263363</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="1" t="str">
+        <v>0.40842242000000001</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="8"/>
-        <v>0.40842242</v>
-      </c>
-      <c r="L13" s="1" t="str">
+        <v>0.15280167000000003</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4327440860215059</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="10"/>
-        <v>0.15280167</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="str">
-        <f>(2/3*H13 - 1/3*I13 + K13 + 2*PO*L13 - Theta)/G13</f>
-        <v>2.110163441</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.6541506667</v>
+        <v>0.75415066666666686</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="str">
+      <c r="Q13" s="1">
         <f t="shared" si="11"/>
-        <v>0.37251288</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>0.37251288000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>0.33</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="2">
         <f t="shared" si="12"/>
-        <v>6.09</v>
-      </c>
-      <c r="D14" s="1" t="str">
+        <v>6.0870300530991699</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="13"/>
-        <v>17.6184</v>
-      </c>
-      <c r="E14" s="1" t="str">
+        <v>17.618400000000001</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="14"/>
-        <v>5.61135</v>
-      </c>
-      <c r="F14" s="1" t="str">
+        <v>5.6113499999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3211595000000003</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>1.3211595</v>
-      </c>
-      <c r="G14" s="1" t="str">
+        <v>0.33</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>0.33</v>
-      </c>
-      <c r="H14" s="1" t="str">
+        <v>0.12153920999999999</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="6"/>
-        <v>0.12153921</v>
-      </c>
-      <c r="I14" s="1" t="str">
+        <v>0.83662029000000027</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="7"/>
-        <v>0.83662029</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="1" t="str">
+        <v>0.55774686000000018</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="8"/>
-        <v>0.55774686</v>
-      </c>
-      <c r="L14" s="1" t="str">
+        <v>0.13803921</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3455066666666666</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="10"/>
-        <v>0.13803921</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="str">
-        <f>(2/3*H14 - 1/3*I14 + K14 + 2*PO*L14 - Theta)/G14</f>
-        <v>2.042476364</v>
-      </c>
-      <c r="O14" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.6740172</v>
+        <v>0.77401720000000007</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="str">
+      <c r="Q14" s="1">
         <f t="shared" si="11"/>
-        <v>0.43341264</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>0.43341264000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>0.35</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="2">
         <f t="shared" si="12"/>
-        <v>5.52</v>
-      </c>
-      <c r="D15" s="1" t="str">
+        <v>5.5173215624995464</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="13"/>
-        <v>20.094</v>
-      </c>
-      <c r="E15" s="1" t="str">
+        <v>20.094000000000001</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="14"/>
-        <v>5.01125</v>
-      </c>
-      <c r="F15" s="1" t="str">
+        <v>5.0112500000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5513837000000004</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>1.5513837</v>
-      </c>
-      <c r="G15" s="1" t="str">
+        <v>0.35</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="5"/>
-        <v>0.35</v>
-      </c>
-      <c r="H15" s="1" t="str">
+        <v>0.10577675000000002</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="6"/>
-        <v>0.10577675</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>1.06060695</v>
+        <v>1.0606069500000004</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f>IF(2*(Q15-H15-G15*0.1)&gt;0,2*(Q15-H15-G15*0.1),0)</f>
+        <v>0.70707130000000018</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="8"/>
-        <v>0.7070713</v>
-      </c>
-      <c r="L15" s="1" t="str">
+        <v>0.12327675000000002</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <f t="shared" si="9"/>
+        <v>2.2682392380952385</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="10"/>
-        <v>0.12327675</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="str">
-        <f>(2/3*H15 - 1/3*I15 + K15 + 2*PO*L15 - Theta)/G15</f>
-        <v>1.982524952</v>
-      </c>
-      <c r="O15" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.6938837333</v>
+        <v>0.7938837333333334</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="str">
+      <c r="Q15" s="1">
         <f t="shared" si="11"/>
-        <v>0.4943124</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>0.4943124000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>0.37</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="2">
         <f t="shared" si="12"/>
-        <v>5.02</v>
-      </c>
-      <c r="D16" s="1" t="str">
+        <v>5.0203941519007458</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="13"/>
-        <v>22.5696</v>
-      </c>
-      <c r="E16" s="1" t="str">
+        <v>22.569600000000001</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="14"/>
-        <v>4.41115</v>
-      </c>
-      <c r="F16" s="1" t="str">
+        <v>4.411150000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7816079000000002</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>1.7816079</v>
-      </c>
-      <c r="G16" s="1" t="str">
+        <v>0.37</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>0.37</v>
-      </c>
-      <c r="H16" s="1" t="str">
+        <v>9.0014290000000025E-2</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="6"/>
-        <v>0.09001429</v>
-      </c>
-      <c r="I16" s="1" t="str">
+        <v>1.2845936100000002</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="7"/>
-        <v>1.28459361</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="1" t="str">
+        <v>0.85639574000000007</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="8"/>
-        <v>0.85639574</v>
-      </c>
-      <c r="L16" s="1" t="str">
+        <v>0.10851429000000003</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1993250450450454</v>
+      </c>
+      <c r="O16" s="1">
         <f t="shared" si="10"/>
-        <v>0.10851429</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="str">
-        <f>(2/3*H16 - 1/3*I16 + K16 + 2*PO*L16 - Theta)/G16</f>
-        <v>1.929054775</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.7137502667</v>
+        <v>0.81375026666666683</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="str">
+      <c r="Q16" s="1">
         <f t="shared" si="11"/>
-        <v>0.55521216</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+        <v>0.55521216000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>0.39</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="2">
         <f t="shared" si="12"/>
-        <v>4.62</v>
-      </c>
-      <c r="D17" s="1" t="str">
+        <v>4.6165047333029179</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="13"/>
-        <v>25.0452</v>
-      </c>
-      <c r="E17" s="1" t="str">
+        <v>25.045200000000001</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="14"/>
-        <v>3.81105</v>
-      </c>
-      <c r="F17" s="1" t="str">
+        <v>3.8110499999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0118320999999999</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>2.0118321</v>
-      </c>
-      <c r="G17" s="1" t="str">
+        <v>0.39</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="5"/>
-        <v>0.39</v>
-      </c>
-      <c r="H17" s="1" t="str">
+        <v>7.4251829999999991E-2</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="6"/>
-        <v>0.07425183</v>
-      </c>
-      <c r="I17" s="1" t="str">
+        <v>1.5085802699999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="7"/>
-        <v>1.50858027</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="1" t="str">
+        <v>1.00572018</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="8"/>
-        <v>1.00572018</v>
-      </c>
-      <c r="L17" s="1" t="str">
+        <v>9.3751829999999994E-2</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1374789743589742</v>
+      </c>
+      <c r="O17" s="1">
         <f t="shared" si="10"/>
-        <v>0.09375183</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="str">
-        <f>(2/3*H17 - 1/3*I17 + K17 + 2*PO*L17 - Theta)/G17</f>
-        <v>1.881068718</v>
-      </c>
-      <c r="O17" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.7336168</v>
+        <v>0.83361679999999994</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="str">
+      <c r="Q17" s="1">
         <f t="shared" si="11"/>
-        <v>0.61611192</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>0.61611192000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>0.41</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="2">
         <f t="shared" si="12"/>
-        <v>4.31</v>
-      </c>
-      <c r="D18" s="1" t="str">
+        <v>4.3148201067001537</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="13"/>
-        <v>27.5208</v>
-      </c>
-      <c r="E18" s="1" t="str">
+        <v>27.520800000000001</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="14"/>
-        <v>3.21095</v>
-      </c>
-      <c r="F18" s="1" t="str">
+        <v>3.2109500000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2420563000000007</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>2.2420563</v>
-      </c>
-      <c r="G18" s="1" t="str">
+        <v>0.41</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>0.41</v>
-      </c>
-      <c r="H18" s="1" t="str">
+        <v>5.8489369999999999E-2</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="6"/>
-        <v>0.05848937</v>
-      </c>
-      <c r="I18" s="1" t="str">
+        <v>1.7325669300000004</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="7"/>
-        <v>1.73256693</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="1" t="str">
+        <v>1.1550446200000002</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="8"/>
-        <v>1.15504462</v>
-      </c>
-      <c r="L18" s="1" t="str">
+        <v>7.8989370000000003E-2</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <f t="shared" si="9"/>
+        <v>2.081666666666667</v>
+      </c>
+      <c r="O18" s="1">
         <f t="shared" si="10"/>
-        <v>0.07898937</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="str">
-        <f>(2/3*H18 - 1/3*I18 + K18 + 2*PO*L18 - Theta)/G18</f>
-        <v>1.837764228</v>
-      </c>
-      <c r="O18" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.7534833333</v>
+        <v>0.85348333333333337</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="str">
+      <c r="Q18" s="1">
         <f t="shared" si="11"/>
-        <v>0.67701168</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>0.67701168000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>0.43</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="2">
         <f t="shared" si="12"/>
-        <v>4.04</v>
-      </c>
-      <c r="D19" s="1" t="str">
+        <v>4.0354138880979917</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="13"/>
-        <v>29.9964</v>
-      </c>
-      <c r="E19" s="1" t="str">
+        <v>29.996400000000001</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="14"/>
-        <v>2.61085</v>
-      </c>
-      <c r="F19" s="1" t="str">
+        <v>2.610850000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4722805000000001</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>2.4722805</v>
-      </c>
-      <c r="G19" s="1" t="str">
+        <v>0.43</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="5"/>
-        <v>0.43</v>
-      </c>
-      <c r="H19" s="1" t="str">
+        <v>4.2726910000000021E-2</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="6"/>
-        <v>0.04272691</v>
-      </c>
-      <c r="I19" s="1" t="str">
+        <v>1.95655359</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="7"/>
-        <v>1.95655359</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="1" t="str">
+        <v>1.30436906</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="8"/>
-        <v>1.30436906</v>
-      </c>
-      <c r="L19" s="1" t="str">
+        <v>6.4226910000000026E-2</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <f t="shared" si="9"/>
+        <v>2.0310462015503878</v>
+      </c>
+      <c r="O19" s="1">
         <f t="shared" si="10"/>
-        <v>0.06422691</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="str">
-        <f>(2/3*H19 - 1/3*I19 + K19 + 2*PO*L19 - Theta)/G19</f>
-        <v>1.798488062</v>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.7733498667</v>
+        <v>0.87334986666666681</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="str">
+      <c r="Q19" s="1">
         <f t="shared" si="11"/>
-        <v>0.73791144</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>0.73791144000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>0.45</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="2">
         <f t="shared" si="12"/>
-        <v>3.53</v>
-      </c>
-      <c r="D20" s="1" t="str">
+        <v>3.5312634375009111</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="13"/>
-        <v>32.472</v>
-      </c>
-      <c r="E20" s="1" t="str">
+        <v>32.472000000000001</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="14"/>
-        <v>2.01075</v>
-      </c>
-      <c r="F20" s="1" t="str">
+        <v>2.0107499999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7025047</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>2.7025047</v>
-      </c>
-      <c r="G20" s="1" t="str">
+        <v>0.45</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-      <c r="H20" s="1" t="str">
+        <v>2.6964449999999997E-2</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="6"/>
-        <v>0.02696445</v>
-      </c>
-      <c r="I20" s="1" t="str">
+        <v>2.18054025</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="7"/>
-        <v>2.18054025</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="1" t="str">
+        <v>1.4536935</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="8"/>
-        <v>1.4536935</v>
-      </c>
-      <c r="L20" s="1" t="str">
+        <v>4.946445E-2</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <f t="shared" si="9"/>
+        <v>1.984925333333333</v>
+      </c>
+      <c r="O20" s="1">
         <f t="shared" si="10"/>
-        <v>0.04946445</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="str">
-        <f>(2/3*H20 - 1/3*I20 + K20 + 2*PO*L20 - Theta)/G20</f>
-        <v>1.762703111</v>
-      </c>
-      <c r="O20" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>0.7932164</v>
+        <v>0.89321639999999991</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="str">
+      <c r="Q20" s="1">
         <f t="shared" si="11"/>
-        <v>0.7988112</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0.79881120000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2746,7 +4126,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2765,7 +4145,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2784,7 +4164,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2809,7 +4189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2831,10 +4211,10 @@
         <v>2.2119641066666667</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.838319466666667</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>2.8383194666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2856,10 +4236,10 @@
         <v>2.5662059066666663</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.097285466666667</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>3.0972854666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2875,16 +4255,16 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1">
-        <v>2.351405866666667</v>
+        <v>2.3514058666666671</v>
       </c>
       <c r="P27" s="1">
         <v>2.6842865066666675</v>
       </c>
       <c r="Q27" s="1">
-        <v>3.183607466666667</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>3.1836074666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2900,7 +4280,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1">
-        <v>2.421032366666667</v>
+        <v>2.4210323666666671</v>
       </c>
       <c r="P28" s="1">
         <v>2.743326806666667</v>
@@ -2909,7 +4289,7 @@
         <v>3.2267684666666674</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2925,7 +4305,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
-        <v>2.45799458271605</v>
+        <v>2.4579945827160499</v>
       </c>
       <c r="P29" s="1">
         <v>2.7746691881481484</v>
@@ -2934,7 +4314,7 @@
         <v>3.2496810962962965</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2959,7 +4339,7 @@
         <v>3.1659361449275365</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2978,13 +4358,13 @@
         <v>2.2756207407407416</v>
       </c>
       <c r="P31" s="1">
-        <v>2.545734207407408</v>
+        <v>2.5457342074074081</v>
       </c>
       <c r="Q31" s="1">
-        <v>2.950904407407408</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>2.9509044074074078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3009,7 +4389,7 @@
         <v>2.7649940114942537</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3025,7 +4405,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
-        <v>2.110163440860216</v>
+        <v>2.1101634408602159</v>
       </c>
       <c r="P33" s="1">
         <v>2.3073268860215057</v>
@@ -3034,7 +4414,7 @@
         <v>2.6030720537634413</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3050,16 +4430,16 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1">
-        <v>2.042476363636364</v>
+        <v>2.0424763636363639</v>
       </c>
       <c r="P34" s="1">
         <v>2.2097966181818185</v>
       </c>
       <c r="Q34" s="1">
-        <v>2.460777</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>2.4607770000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3081,10 +4461,10 @@
         <v>2.1234126666666673</v>
       </c>
       <c r="Q35" s="1">
-        <v>2.334744238095239</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>2.3347442380952388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3109,7 +4489,7 @@
         <v>2.2223366396396402</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3134,7 +4514,7 @@
         <v>2.1214580256410254</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3159,7 +4539,7 @@
         <v>2.0304212276422766</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3175,7 +4555,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1">
-        <v>1.798488062015504</v>
+        <v>1.7984880620155039</v>
       </c>
       <c r="P39" s="1">
         <v>1.8582340248062017</v>
@@ -3184,7 +4564,7 @@
         <v>1.9478529689922484</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3203,13 +4583,13 @@
         <v>1.7627031111111109</v>
       </c>
       <c r="P40" s="1">
-        <v>1.806671511111111</v>
+        <v>1.8066715111111109</v>
       </c>
       <c r="Q40" s="1">
         <v>1.8726241111111108</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3228,7 +4608,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3247,7 +4627,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3266,7 +4646,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3285,7 +4665,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3304,7 +4684,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3323,7 +4703,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3342,7 +4722,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3361,7 +4741,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3380,7 +4760,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3399,7 +4779,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3418,7 +4798,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3437,7 +4817,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3456,7 +4836,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3475,7 +4855,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3494,7 +4874,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3513,7 +4893,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3532,7 +4912,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3551,7 +4931,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3570,7 +4950,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3589,7 +4969,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3608,7 +4988,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3627,7 +5007,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3646,7 +5026,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3665,7 +5045,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3684,7 +5064,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3703,7 +5083,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3722,7 +5102,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3741,7 +5121,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3760,7 +5140,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3779,7 +5159,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3798,7 +5178,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3817,7 +5197,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3836,7 +5216,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3855,7 +5235,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3874,7 +5254,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3893,7 +5273,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3912,7 +5292,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3931,7 +5311,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3950,7 +5330,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3969,7 +5349,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3988,7 +5368,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4007,7 +5387,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4026,7 +5406,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4045,7 +5425,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4064,7 +5444,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4083,7 +5463,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4102,7 +5482,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4121,7 +5501,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4140,7 +5520,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4159,7 +5539,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4178,7 +5558,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4197,7 +5577,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4216,7 +5596,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4235,7 +5615,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4254,7 +5634,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4273,7 +5653,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4292,7 +5672,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4311,7 +5691,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4330,7 +5710,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4350,121 +5730,2722 @@
       <c r="Q100" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="8.71"/>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <f>12+ 1.8 + 16*0.5  + 14*0.2</f>
+        <v>24.6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C9" si="0">2.2342*B5+13.551</f>
+        <v>13.662710000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D9" si="1">29.526*B5+0.6455</f>
+        <v>2.1218000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E9" si="2">29.526*B5+0.6455</f>
+        <v>2.1218000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(1.05*G5) + H5 + I5</f>
+        <v>4.1543203252032521</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B5/$F$1*1000</f>
+        <v>2.0325203252032518</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H20" si="3">(-0.1*G5+1/3*J5+2*L5)/2</f>
+        <v>2.0201739837398378</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I20" si="4">J5+1.5*K5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f>IF(2*(Q5-H5-G5*0.1)&gt;0,2*(Q5-H5-G5*0.1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>E5</f>
+        <v>2.1218000000000004</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <f>(2/3*H5 - 1/3*I5 + K5 + 2*PO*L5 - Theta)/G5</f>
+        <v>3.7943938666666677</v>
+      </c>
+      <c r="O5" s="1">
+        <f>N5*G5</f>
+        <v>7.7121826558265596</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <f>D5</f>
+        <v>2.1218000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>13.774420000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5981000000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5981000000000005</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F19" si="5">(1.05*G6) + H6 + I6</f>
+        <v>7.6631406504065041</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G20" si="6">B6/$F$1*1000</f>
+        <v>4.0650406504065035</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3948479674796754</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K5:K20" si="7">IF(2*(Q6-H6-G6*0.1)&gt;0,2*(Q6-H6-G6*0.1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L20" si="8">E6</f>
+        <v>3.5981000000000005</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N20" si="9">(2/3*H6 - 1/3*I6 + K6 + 2*PO*L6 - Theta)/G6</f>
+        <v>3.2121528666666674</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O20" si="10">N6*G6</f>
+        <v>13.057531978319785</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <f t="shared" ref="Q6:Q20" si="11">D6</f>
+        <v>3.5981000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.88613</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0743999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>5.0743999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>11.171960975609755</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>6.0975609756097553</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7695219512195122</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0743999999999998</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0180725333333336</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="10"/>
+        <v>18.402881300813007</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <f t="shared" si="11"/>
+        <v>5.0743999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>13.99784</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5507000000000009</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5507000000000009</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="5"/>
+        <v>14.680781300813008</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="6"/>
+        <v>8.1300813008130071</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1441959349593507</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5507000000000009</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9210323666666675</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="10"/>
+        <v>23.748230623306238</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <f t="shared" si="11"/>
+        <v>6.5507000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>14.093910600000001</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8203180000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8203180000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="5"/>
+        <v>17.698366780487802</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="6"/>
+        <v>9.8780487804878039</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3264155609756099</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="8"/>
+        <v>7.8203180000000003</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <f t="shared" si="9"/>
+        <v>2.8695172164609057</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="10"/>
+        <v>28.345231040650408</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <f t="shared" si="11"/>
+        <v>7.8203180000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:C20" si="12">-203133*B10^5 + 372908*B10^4 - 273102*B10^3 + 99847*B10^2 - 18267*B10 + 1347.9</f>
+        <v>12.063475169094545</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:D20" si="13">123.78*B10-23.229</f>
+        <v>8.0873400000000011</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10:E20" si="14">-30.005*B10+15.513</f>
+        <v>7.921735</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="5"/>
+        <v>18.206287845528458</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="6"/>
+        <v>10.284552845528456</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4075073577235768</v>
+      </c>
+      <c r="I10" s="1">
+        <f>J10+1.5*K10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f>IF(2*(Q10-H10-G10*0.1)&gt;0,2*(Q10-H10-G10*0.1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="8"/>
+        <v>7.921735</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7909374057971013</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="10"/>
+        <v>28.703543238482386</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <f t="shared" si="11"/>
+        <v>8.0873400000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="12"/>
+        <v>9.5019857169013449</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="13"/>
+        <v>10.191600000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="14"/>
+        <v>7.4116499999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="5"/>
+        <v>25.080768292682929</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="6"/>
+        <v>10.97560975609756</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8628695121951218</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6935085365853695</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <f>IF(2*(Q11-H11-G11*0.1)&gt;0,2*(Q11-H11-G11*0.1),0)</f>
+        <v>4.4623390243902463</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="8"/>
+        <v>7.4116499999999998</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <f t="shared" si="9"/>
+        <v>2.645991111111111</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="10"/>
+        <v>29.041365853658533</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
+        <f t="shared" si="11"/>
+        <v>10.191600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="12"/>
+        <v>7.7763304983013768</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="13"/>
+        <v>12.667200000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="14"/>
+        <v>6.8115500000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="5"/>
+        <v>34.398825203252031</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="6"/>
+        <v>11.78861788617886</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>6.222119105691057</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>15.798657317073175</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="7"/>
+        <v>10.532438211382116</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="8"/>
+        <v>6.8115500000000004</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5320142528735636</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="10"/>
+        <v>29.848948509485098</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <f t="shared" si="11"/>
+        <v>12.667200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7761756717004573</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="13"/>
+        <v>15.142800000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="14"/>
+        <v>6.211450000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="5"/>
+        <v>43.716882113821143</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="6"/>
+        <v>12.601626016260161</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5813686991869931</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>24.903806097560981</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="7"/>
+        <v>16.602537398373986</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="8"/>
+        <v>6.211450000000001</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4327440860215064</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="10"/>
+        <v>30.656531165311662</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
+        <f t="shared" si="11"/>
+        <v>15.142800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="12"/>
+        <v>6.0870300530991699</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="13"/>
+        <v>17.618400000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="14"/>
+        <v>5.6113499999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="5"/>
+        <v>53.034939024390248</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
+        <v>13.414634146341463</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9406182926829265</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>34.008954878048783</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="7"/>
+        <v>22.672636585365854</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="8"/>
+        <v>5.6113499999999998</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3455066666666666</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="10"/>
+        <v>31.464113821138209</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <f t="shared" si="11"/>
+        <v>17.618400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="12"/>
+        <v>5.5173215624995464</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="13"/>
+        <v>20.094000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="14"/>
+        <v>5.0112500000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="5"/>
+        <v>62.352995934959353</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="6"/>
+        <v>14.227642276422761</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2998678861788626</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>43.114103658536592</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="7"/>
+        <v>28.742735772357726</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0112500000000004</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <f t="shared" si="9"/>
+        <v>2.268239238095239</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="10"/>
+        <v>32.271696476964777</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <f t="shared" si="11"/>
+        <v>20.094000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="12"/>
+        <v>5.0203941519007458</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="13"/>
+        <v>22.569600000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="14"/>
+        <v>4.411150000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="5"/>
+        <v>71.67105284552845</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="6"/>
+        <v>15.040650406504064</v>
+      </c>
+      <c r="H16" s="1">
+        <f>(-0.1*G16+1/3*J16+2*L16)/2</f>
+        <v>3.6591174796747978</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>52.219252439024388</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="7"/>
+        <v>34.812834959349594</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="8"/>
+        <v>4.411150000000001</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1993250450450459</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="10"/>
+        <v>33.079279132791335</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <f t="shared" si="11"/>
+        <v>22.569600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="12"/>
+        <v>4.6165047333029179</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="13"/>
+        <v>25.045200000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="14"/>
+        <v>3.8110499999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="5"/>
+        <v>80.989109756097577</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="6"/>
+        <v>15.853658536585366</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0183670731707313</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>61.324401219512204</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="7"/>
+        <v>40.882934146341469</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="8"/>
+        <v>3.8110499999999998</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1374789743589742</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="10"/>
+        <v>33.886861788617885</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <f t="shared" si="11"/>
+        <v>25.045200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="12"/>
+        <v>4.3148201067001537</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="13"/>
+        <v>27.520800000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="14"/>
+        <v>3.2109500000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="5"/>
+        <v>90.30716666666666</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="6"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3776166666666669</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>70.429549999999992</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="7"/>
+        <v>46.95303333333333</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2109500000000004</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <f t="shared" si="9"/>
+        <v>2.0816666666666666</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="10"/>
+        <v>34.694444444444443</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
+        <f t="shared" si="11"/>
+        <v>27.520800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0354138880979917</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="13"/>
+        <v>29.996400000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="14"/>
+        <v>2.610850000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>99.625223577235786</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="6"/>
+        <v>17.479674796747968</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7368662601626026</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>79.534698780487815</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="7"/>
+        <v>53.023132520325206</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="8"/>
+        <v>2.610850000000001</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <f t="shared" si="9"/>
+        <v>2.0310462015503878</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="10"/>
+        <v>35.502027100271007</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
+        <f t="shared" si="11"/>
+        <v>29.996400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="12"/>
+        <v>3.5312634375009111</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="13"/>
+        <v>32.472000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="14"/>
+        <v>2.0107499999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <f>(1.2*G20) + H20 + I20</f>
+        <v>111.68718292682928</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>18.292682926829269</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0961158536585365</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>88.639847560975625</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="7"/>
+        <v>59.093231707317081</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0107499999999998</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <f t="shared" si="9"/>
+        <v>1.9849253333333334</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="10"/>
+        <v>36.309609756097565</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
+        <f t="shared" si="11"/>
+        <v>32.472000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <v>1.7943938666666674</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.2119641066666667</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2.8383194666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>2.2121528666666666</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2.5662059066666663</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3.0972854666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <v>2.3514058666666671</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2.6842865066666675</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3.1836074666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1">
+        <v>2.4210323666666671</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2.743326806666667</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3.2267684666666674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>2.4579945827160499</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2.7746691881481484</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3.2496810962962965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <v>2.3956804888010543</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2.7037827512516475</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3.1659361449275365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>2.2756207407407416</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2.5457342074074081</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2.9509044074074078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
+        <v>2.1871866666666673</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2.4183096045977015</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2.7649940114942537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
+        <v>2.1101634408602159</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2.3073268860215057</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2.6030720537634413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
+        <v>2.0424763636363639</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2.2097966181818185</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2.4607770000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1">
+        <v>1.9825249523809532</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2.1234126666666673</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2.3347442380952388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1">
+        <v>1.9290547747747753</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2.0463675207207213</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2.2223366396396402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1">
+        <v>1.8810687179487178</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1.977224441025641</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2.1214580256410254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1">
+        <v>1.8377642276422768</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.9148270276422765</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2.0304212276422766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1">
+        <v>1.7984880620155039</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1.8582340248062017</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1.9478529689922484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1">
+        <v>1.7627031111111109</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.8066715111111109</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1.8726241111111108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>